--- a/Results/Excel/TC02_Login_Result.xlsx
+++ b/Results/Excel/TC02_Login_Result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2E59E1-CFA4-47D4-AF4A-64F5B97CDF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D94264-191D-463B-8CA1-E0A7F25BFFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -130,6 +130,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -188,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -222,6 +229,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
@@ -597,10 +607,10 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -629,10 +639,10 @@
       <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -659,10 +669,10 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -691,10 +701,10 @@
       <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -723,10 +733,10 @@
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
